--- a/data/pca/factorExposure/factorExposure_2011-12-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01063379461114707</v>
+        <v>0.01146622313758114</v>
       </c>
       <c r="C2">
-        <v>0.03035942176797721</v>
+        <v>0.02505072980829507</v>
       </c>
       <c r="D2">
-        <v>-0.02142383105553336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02357324400530283</v>
+      </c>
+      <c r="E2">
+        <v>-0.007042532898634871</v>
+      </c>
+      <c r="F2">
+        <v>0.02765328405942081</v>
+      </c>
+      <c r="G2">
+        <v>0.002764249001898262</v>
+      </c>
+      <c r="H2">
+        <v>0.02613702509490631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07478251247183518</v>
+        <v>0.08734675377011251</v>
       </c>
       <c r="C4">
-        <v>0.05169201326492456</v>
+        <v>0.03526198335201725</v>
       </c>
       <c r="D4">
-        <v>-0.08041730382013799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07014411457276132</v>
+      </c>
+      <c r="E4">
+        <v>-0.007276936874587687</v>
+      </c>
+      <c r="F4">
+        <v>0.04011997149926223</v>
+      </c>
+      <c r="G4">
+        <v>0.01700320318382716</v>
+      </c>
+      <c r="H4">
+        <v>-0.03994839849193994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1109485326471117</v>
+        <v>0.1238134039422914</v>
       </c>
       <c r="C6">
-        <v>0.05063473443924711</v>
+        <v>0.03570715518146016</v>
       </c>
       <c r="D6">
-        <v>-0.003414831309514232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.009140840101025212</v>
+      </c>
+      <c r="E6">
+        <v>0.02843510792136667</v>
+      </c>
+      <c r="F6">
+        <v>0.05145158140556137</v>
+      </c>
+      <c r="G6">
+        <v>0.03837126255478027</v>
+      </c>
+      <c r="H6">
+        <v>0.1176213804317067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05570989229008624</v>
+        <v>0.06436620093884408</v>
       </c>
       <c r="C7">
-        <v>0.02910569824501511</v>
+        <v>0.01444601949501046</v>
       </c>
       <c r="D7">
-        <v>-0.03127333445513655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05023126112196143</v>
+      </c>
+      <c r="E7">
+        <v>-0.03041496944766574</v>
+      </c>
+      <c r="F7">
+        <v>0.04059183527612699</v>
+      </c>
+      <c r="G7">
+        <v>-0.02753843885916984</v>
+      </c>
+      <c r="H7">
+        <v>-0.008890664667846033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03909080154342609</v>
+        <v>0.04236543853717131</v>
       </c>
       <c r="C8">
-        <v>0.01230840346096517</v>
+        <v>0.00849639384960608</v>
       </c>
       <c r="D8">
-        <v>-0.06153507210285766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02420705884149999</v>
+      </c>
+      <c r="E8">
+        <v>-0.01260021862019386</v>
+      </c>
+      <c r="F8">
+        <v>0.06586363265619635</v>
+      </c>
+      <c r="G8">
+        <v>0.07127732637315558</v>
+      </c>
+      <c r="H8">
+        <v>0.01237466582662733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07096534743740275</v>
+        <v>0.08031597226743172</v>
       </c>
       <c r="C9">
-        <v>0.03975669356036272</v>
+        <v>0.02421487549807798</v>
       </c>
       <c r="D9">
-        <v>-0.07063666853215071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06303125308562761</v>
+      </c>
+      <c r="E9">
+        <v>-0.02348215200821427</v>
+      </c>
+      <c r="F9">
+        <v>0.03383960965471011</v>
+      </c>
+      <c r="G9">
+        <v>0.02644670326534001</v>
+      </c>
+      <c r="H9">
+        <v>-0.04544354213082822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03007407174587102</v>
+        <v>0.04527741835291593</v>
       </c>
       <c r="C10">
-        <v>0.02889031770865109</v>
+        <v>0.05863771304251417</v>
       </c>
       <c r="D10">
-        <v>0.1765529646945396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1763120092701441</v>
+      </c>
+      <c r="E10">
+        <v>-0.03970204098439261</v>
+      </c>
+      <c r="F10">
+        <v>0.05069393670979361</v>
+      </c>
+      <c r="G10">
+        <v>-0.034722615188757</v>
+      </c>
+      <c r="H10">
+        <v>0.05730109675963233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07177861438244031</v>
+        <v>0.07583130702826316</v>
       </c>
       <c r="C11">
-        <v>0.04299446282116964</v>
+        <v>0.02122126288794954</v>
       </c>
       <c r="D11">
-        <v>-0.05287433539099934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06572481691306623</v>
+      </c>
+      <c r="E11">
+        <v>0.004509205605896166</v>
+      </c>
+      <c r="F11">
+        <v>0.03040242526467179</v>
+      </c>
+      <c r="G11">
+        <v>0.03603491275639972</v>
+      </c>
+      <c r="H11">
+        <v>-0.07231228907192459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06065416332206861</v>
+        <v>0.0694752451599934</v>
       </c>
       <c r="C12">
-        <v>0.05154559942437107</v>
+        <v>0.03328604817814557</v>
       </c>
       <c r="D12">
-        <v>-0.0440892891901515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05052664259906044</v>
+      </c>
+      <c r="E12">
+        <v>-0.01157502550864052</v>
+      </c>
+      <c r="F12">
+        <v>0.02306893765027705</v>
+      </c>
+      <c r="G12">
+        <v>0.02115206466572037</v>
+      </c>
+      <c r="H12">
+        <v>-0.03461430555585369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06861466091806542</v>
+        <v>0.06795353691426097</v>
       </c>
       <c r="C13">
-        <v>0.0360418825932482</v>
+        <v>0.01831479322662687</v>
       </c>
       <c r="D13">
-        <v>-0.04055592762460998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03768709738191465</v>
+      </c>
+      <c r="E13">
+        <v>-0.006432512031678302</v>
+      </c>
+      <c r="F13">
+        <v>0.02751908192006694</v>
+      </c>
+      <c r="G13">
+        <v>0.0159476463114157</v>
+      </c>
+      <c r="H13">
+        <v>-0.05021456681167042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03390255352008975</v>
+        <v>0.04061231611339659</v>
       </c>
       <c r="C14">
-        <v>0.03390686945264087</v>
+        <v>0.02819868904141401</v>
       </c>
       <c r="D14">
-        <v>0.01084705698304171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01244638300821336</v>
+      </c>
+      <c r="E14">
+        <v>-0.02582199495162541</v>
+      </c>
+      <c r="F14">
+        <v>0.01789494891543927</v>
+      </c>
+      <c r="G14">
+        <v>0.02748281015600786</v>
+      </c>
+      <c r="H14">
+        <v>-0.04901203500287191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04254437375402164</v>
+        <v>0.04099408987191642</v>
       </c>
       <c r="C15">
-        <v>0.008940532291822028</v>
+        <v>0.001820290024193434</v>
       </c>
       <c r="D15">
-        <v>-0.01944656701909316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007551226483268219</v>
+      </c>
+      <c r="E15">
+        <v>-0.03683194818778678</v>
+      </c>
+      <c r="F15">
+        <v>0.002962381417678896</v>
+      </c>
+      <c r="G15">
+        <v>0.03499457763990432</v>
+      </c>
+      <c r="H15">
+        <v>-0.02432394448901966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06105884810318028</v>
+        <v>0.07123409554559439</v>
       </c>
       <c r="C16">
-        <v>0.04015766148110891</v>
+        <v>0.02379695672397194</v>
       </c>
       <c r="D16">
-        <v>-0.04913899168212427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06324647635536175</v>
+      </c>
+      <c r="E16">
+        <v>-0.005913788231523982</v>
+      </c>
+      <c r="F16">
+        <v>0.02955314794704731</v>
+      </c>
+      <c r="G16">
+        <v>0.02052894540457212</v>
+      </c>
+      <c r="H16">
+        <v>-0.05274662848382922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06414522834177759</v>
+        <v>0.06291620160669935</v>
       </c>
       <c r="C20">
-        <v>0.02510476726150684</v>
+        <v>0.00685263254425045</v>
       </c>
       <c r="D20">
-        <v>-0.04782380472530082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04040195787068884</v>
+      </c>
+      <c r="E20">
+        <v>-0.008407082534131556</v>
+      </c>
+      <c r="F20">
+        <v>0.03083073999038162</v>
+      </c>
+      <c r="G20">
+        <v>0.02489508264323986</v>
+      </c>
+      <c r="H20">
+        <v>-0.04378968688928454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02934393092001203</v>
+        <v>0.02747278625958664</v>
       </c>
       <c r="C21">
-        <v>0.001302184059433806</v>
+        <v>-0.007705316361321336</v>
       </c>
       <c r="D21">
-        <v>-0.01760850271182393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02144749582753432</v>
+      </c>
+      <c r="E21">
+        <v>-0.0396415675506095</v>
+      </c>
+      <c r="F21">
+        <v>-0.01426665051829582</v>
+      </c>
+      <c r="G21">
+        <v>0.01717182969868885</v>
+      </c>
+      <c r="H21">
+        <v>0.0540157762561474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07988459434836701</v>
+        <v>0.07098109367802677</v>
       </c>
       <c r="C22">
-        <v>0.06180559192408955</v>
+        <v>0.03325866106776688</v>
       </c>
       <c r="D22">
-        <v>-0.1434318808664862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.104680083342069</v>
+      </c>
+      <c r="E22">
+        <v>-0.6116965658455323</v>
+      </c>
+      <c r="F22">
+        <v>-0.06248247578175261</v>
+      </c>
+      <c r="G22">
+        <v>-0.1554849912834707</v>
+      </c>
+      <c r="H22">
+        <v>0.1525113073081836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08090204882733915</v>
+        <v>0.07189327602197212</v>
       </c>
       <c r="C23">
-        <v>0.06049788754788868</v>
+        <v>0.0319238918090352</v>
       </c>
       <c r="D23">
-        <v>-0.1445827801927916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1057365824552033</v>
+      </c>
+      <c r="E23">
+        <v>-0.6137742933545998</v>
+      </c>
+      <c r="F23">
+        <v>-0.06180886175142918</v>
+      </c>
+      <c r="G23">
+        <v>-0.1503890213059821</v>
+      </c>
+      <c r="H23">
+        <v>0.1477605618464073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07706691394892944</v>
+        <v>0.08116590008873627</v>
       </c>
       <c r="C24">
-        <v>0.05305458287290214</v>
+        <v>0.03046936752265161</v>
       </c>
       <c r="D24">
-        <v>-0.05636076742334639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06321393403163757</v>
+      </c>
+      <c r="E24">
+        <v>-0.01055356989580229</v>
+      </c>
+      <c r="F24">
+        <v>0.03802795040922693</v>
+      </c>
+      <c r="G24">
+        <v>0.03478273673454257</v>
+      </c>
+      <c r="H24">
+        <v>-0.03753170058979404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0752772214391155</v>
+        <v>0.07947875691056412</v>
       </c>
       <c r="C25">
-        <v>0.05408164736953935</v>
+        <v>0.0331881704514842</v>
       </c>
       <c r="D25">
-        <v>-0.05831820656282218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05241737237280081</v>
+      </c>
+      <c r="E25">
+        <v>-0.01898573798864586</v>
+      </c>
+      <c r="F25">
+        <v>0.03434051050127394</v>
+      </c>
+      <c r="G25">
+        <v>0.04417614668563383</v>
+      </c>
+      <c r="H25">
+        <v>-0.04506008186953778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04629436336827404</v>
+        <v>0.04519917242851816</v>
       </c>
       <c r="C26">
-        <v>0.01227423320711434</v>
+        <v>0.001648964578162958</v>
       </c>
       <c r="D26">
-        <v>-0.009954302617594248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01982761791454211</v>
+      </c>
+      <c r="E26">
+        <v>-0.04035564191002214</v>
+      </c>
+      <c r="F26">
+        <v>0.03524615085214438</v>
+      </c>
+      <c r="G26">
+        <v>0.01865911255063443</v>
+      </c>
+      <c r="H26">
+        <v>-0.04359769278267759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04749472491712704</v>
+        <v>0.07050003618520388</v>
       </c>
       <c r="C28">
-        <v>0.07255576213802319</v>
+        <v>0.1144776170279017</v>
       </c>
       <c r="D28">
-        <v>0.3044789665758635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2979656944546205</v>
+      </c>
+      <c r="E28">
+        <v>-0.03657017768811285</v>
+      </c>
+      <c r="F28">
+        <v>0.0583163929327476</v>
+      </c>
+      <c r="G28">
+        <v>0.02737931158519597</v>
+      </c>
+      <c r="H28">
+        <v>0.04867393122858349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04548221492712339</v>
+        <v>0.04756943012142623</v>
       </c>
       <c r="C29">
-        <v>0.03054432207972508</v>
+        <v>0.02223515701865432</v>
       </c>
       <c r="D29">
-        <v>-0.001325455586111838</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01210163316085734</v>
+      </c>
+      <c r="E29">
+        <v>-0.05728963109855434</v>
+      </c>
+      <c r="F29">
+        <v>0.01420170849596223</v>
+      </c>
+      <c r="G29">
+        <v>0.01287610222199316</v>
+      </c>
+      <c r="H29">
+        <v>-0.06279635018028173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1293001941991233</v>
+        <v>0.1277433343766363</v>
       </c>
       <c r="C30">
-        <v>0.08691944728372077</v>
+        <v>0.05412357159195787</v>
       </c>
       <c r="D30">
-        <v>-0.1153996665536483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08115470721667137</v>
+      </c>
+      <c r="E30">
+        <v>-0.05353208296024976</v>
+      </c>
+      <c r="F30">
+        <v>0.01650062243938462</v>
+      </c>
+      <c r="G30">
+        <v>0.07527043134505433</v>
+      </c>
+      <c r="H30">
+        <v>0.03537770599147151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04825005881032204</v>
+        <v>0.04893735428970702</v>
       </c>
       <c r="C31">
-        <v>0.02281478997590461</v>
+        <v>0.009531734187817576</v>
       </c>
       <c r="D31">
-        <v>-0.02077191755892765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03535044693093188</v>
+      </c>
+      <c r="E31">
+        <v>-0.02462357802480106</v>
+      </c>
+      <c r="F31">
+        <v>0.007726373155535337</v>
+      </c>
+      <c r="G31">
+        <v>-0.00579375968634263</v>
+      </c>
+      <c r="H31">
+        <v>-0.07030816053420333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03627311767794072</v>
+        <v>0.03913699759507862</v>
       </c>
       <c r="C32">
-        <v>0.02268693742764637</v>
+        <v>0.02141030830453074</v>
       </c>
       <c r="D32">
-        <v>-0.02795834326322911</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0110831669972187</v>
+      </c>
+      <c r="E32">
+        <v>-0.05354688021945164</v>
+      </c>
+      <c r="F32">
+        <v>-0.00452371218105366</v>
+      </c>
+      <c r="G32">
+        <v>0.03355419045770047</v>
+      </c>
+      <c r="H32">
+        <v>-0.03118248708452238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0866656674008006</v>
+        <v>0.09454368023145795</v>
       </c>
       <c r="C33">
-        <v>0.04244732432819143</v>
+        <v>0.02145204092925266</v>
       </c>
       <c r="D33">
-        <v>-0.04837489911101732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04887906184287118</v>
+      </c>
+      <c r="E33">
+        <v>-0.01399893469640067</v>
+      </c>
+      <c r="F33">
+        <v>0.004881399119211706</v>
+      </c>
+      <c r="G33">
+        <v>0.01990912587164969</v>
+      </c>
+      <c r="H33">
+        <v>-0.06327066382618847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05954041881930471</v>
+        <v>0.06410121386078574</v>
       </c>
       <c r="C34">
-        <v>0.02524150832897928</v>
+        <v>0.008286509773575137</v>
       </c>
       <c r="D34">
-        <v>-0.05109787967737139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04996992805032307</v>
+      </c>
+      <c r="E34">
+        <v>-0.00694707130541117</v>
+      </c>
+      <c r="F34">
+        <v>0.02363056619571269</v>
+      </c>
+      <c r="G34">
+        <v>0.02045572477966809</v>
+      </c>
+      <c r="H34">
+        <v>-0.05120194834526735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0369093403756622</v>
+        <v>0.03810150159038012</v>
       </c>
       <c r="C35">
-        <v>0.008039398024072296</v>
+        <v>0.001791782679466273</v>
       </c>
       <c r="D35">
-        <v>-0.0197729148386226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01619434993714007</v>
+      </c>
+      <c r="E35">
+        <v>-0.02267229005820764</v>
+      </c>
+      <c r="F35">
+        <v>-0.01659853856381044</v>
+      </c>
+      <c r="G35">
+        <v>0.002651828355538948</v>
+      </c>
+      <c r="H35">
+        <v>-0.0263614803104863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02497912944680653</v>
+        <v>0.02906504677161311</v>
       </c>
       <c r="C36">
-        <v>0.01921772022619721</v>
+        <v>0.01451418742473632</v>
       </c>
       <c r="D36">
-        <v>-0.01890724368962507</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01777112715940682</v>
+      </c>
+      <c r="E36">
+        <v>-0.02999453488603437</v>
+      </c>
+      <c r="F36">
+        <v>0.03089998968026447</v>
+      </c>
+      <c r="G36">
+        <v>0.006847132772834944</v>
+      </c>
+      <c r="H36">
+        <v>-0.04606130240051346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0453555754811107</v>
+        <v>0.04642314294912037</v>
       </c>
       <c r="C38">
-        <v>0.003511402772118669</v>
+        <v>-0.004147718810379126</v>
       </c>
       <c r="D38">
-        <v>-0.01721110971855381</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0185650094923367</v>
+      </c>
+      <c r="E38">
+        <v>-0.05062633124819208</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006722498876620267</v>
+      </c>
+      <c r="G38">
+        <v>0.006825199355536968</v>
+      </c>
+      <c r="H38">
+        <v>-0.02185763650621495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0903237475524814</v>
+        <v>0.1002051353037315</v>
       </c>
       <c r="C39">
-        <v>0.06636633112807809</v>
+        <v>0.04333973312779715</v>
       </c>
       <c r="D39">
-        <v>-0.06280595533455119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06991673076719847</v>
+      </c>
+      <c r="E39">
+        <v>0.001657498944078694</v>
+      </c>
+      <c r="F39">
+        <v>0.0009607488051352921</v>
+      </c>
+      <c r="G39">
+        <v>0.04249432299039552</v>
+      </c>
+      <c r="H39">
+        <v>-0.02843800251784925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0808710223944247</v>
+        <v>0.06269227415509022</v>
       </c>
       <c r="C40">
-        <v>0.03471004327296111</v>
+        <v>0.003722526302215744</v>
       </c>
       <c r="D40">
-        <v>-0.01277041541006555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03335815919694575</v>
+      </c>
+      <c r="E40">
+        <v>-0.03458230029291868</v>
+      </c>
+      <c r="F40">
+        <v>-0.03377518577662434</v>
+      </c>
+      <c r="G40">
+        <v>0.05757650498863985</v>
+      </c>
+      <c r="H40">
+        <v>0.07546844433092831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04500867369800691</v>
+        <v>0.04633053839086553</v>
       </c>
       <c r="C41">
-        <v>0.00672509298351866</v>
+        <v>-0.004503929396468386</v>
       </c>
       <c r="D41">
-        <v>-0.03638870692299096</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03119764855821029</v>
+      </c>
+      <c r="E41">
+        <v>-0.003417313029066716</v>
+      </c>
+      <c r="F41">
+        <v>-0.01357583691885336</v>
+      </c>
+      <c r="G41">
+        <v>0.0217806141961567</v>
+      </c>
+      <c r="H41">
+        <v>-0.02122786796687701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05407830542278779</v>
+        <v>0.06054130359799893</v>
       </c>
       <c r="C43">
-        <v>0.02618061336603101</v>
+        <v>0.01506818424254842</v>
       </c>
       <c r="D43">
-        <v>-0.01230960043751438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02819128590488207</v>
+      </c>
+      <c r="E43">
+        <v>-0.02226297987502979</v>
+      </c>
+      <c r="F43">
+        <v>0.01634220345855268</v>
+      </c>
+      <c r="G43">
+        <v>-0.00545779548081426</v>
+      </c>
+      <c r="H43">
+        <v>-0.05990762246140626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09645505356907894</v>
+        <v>0.09340599483901739</v>
       </c>
       <c r="C44">
-        <v>0.08308455633663057</v>
+        <v>0.05253483374878167</v>
       </c>
       <c r="D44">
-        <v>-0.07707743329081682</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07322050347020158</v>
+      </c>
+      <c r="E44">
+        <v>-0.05835609112530168</v>
+      </c>
+      <c r="F44">
+        <v>0.0937769706471324</v>
+      </c>
+      <c r="G44">
+        <v>0.05979663048145464</v>
+      </c>
+      <c r="H44">
+        <v>-0.08841398281447603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02731521788289338</v>
+        <v>0.03528054539345207</v>
       </c>
       <c r="C46">
-        <v>0.01493568474568802</v>
+        <v>0.009199038966926193</v>
       </c>
       <c r="D46">
-        <v>-0.03257661101990635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03640807635583715</v>
+      </c>
+      <c r="E46">
+        <v>-0.03135825816274804</v>
+      </c>
+      <c r="F46">
+        <v>0.01524116039968799</v>
+      </c>
+      <c r="G46">
+        <v>0.0106966100483852</v>
+      </c>
+      <c r="H46">
+        <v>-0.01750180564122214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03615491173074304</v>
+        <v>0.04199091141056546</v>
       </c>
       <c r="C47">
-        <v>0.02520542556573517</v>
+        <v>0.0194813594034193</v>
       </c>
       <c r="D47">
-        <v>0.001175011785367502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.006918710721271454</v>
+      </c>
+      <c r="E47">
+        <v>-0.03937699685534771</v>
+      </c>
+      <c r="F47">
+        <v>-0.01093947681079978</v>
+      </c>
+      <c r="G47">
+        <v>-0.03083985325888173</v>
+      </c>
+      <c r="H47">
+        <v>-0.02569457591540083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0365089536396143</v>
+        <v>0.03968201947520694</v>
       </c>
       <c r="C48">
-        <v>0.019510372229141</v>
+        <v>0.01084082597200592</v>
       </c>
       <c r="D48">
-        <v>-0.03050205355852319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02063650283623332</v>
+      </c>
+      <c r="E48">
+        <v>-0.03802134756722194</v>
+      </c>
+      <c r="F48">
+        <v>0.01249568294266712</v>
+      </c>
+      <c r="G48">
+        <v>0.02386100167581903</v>
+      </c>
+      <c r="H48">
+        <v>-0.02473176085182264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1629931904141201</v>
+        <v>0.1986751084964769</v>
       </c>
       <c r="C49">
-        <v>0.04826946938862361</v>
+        <v>0.03105984441424945</v>
       </c>
       <c r="D49">
-        <v>-0.004005002228394449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02453162127341775</v>
+      </c>
+      <c r="E49">
+        <v>0.1678726488564486</v>
+      </c>
+      <c r="F49">
+        <v>0.0382792425385396</v>
+      </c>
+      <c r="G49">
+        <v>-0.1311051479416814</v>
+      </c>
+      <c r="H49">
+        <v>0.2405037906661378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04280963098864572</v>
+        <v>0.04528945396141831</v>
       </c>
       <c r="C50">
-        <v>0.02266823726339694</v>
+        <v>0.01150753293755405</v>
       </c>
       <c r="D50">
-        <v>-0.03745960477371717</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0397968693945222</v>
+      </c>
+      <c r="E50">
+        <v>-0.03648332304315462</v>
+      </c>
+      <c r="F50">
+        <v>0.006327012874343669</v>
+      </c>
+      <c r="G50">
+        <v>0.005408254324808947</v>
+      </c>
+      <c r="H50">
+        <v>-0.0757955293674147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02937145169845362</v>
+        <v>0.03494531858260909</v>
       </c>
       <c r="C51">
-        <v>0.01158890481331193</v>
+        <v>0.006920539006475939</v>
       </c>
       <c r="D51">
-        <v>0.001064996160982705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0009176393000821975</v>
+      </c>
+      <c r="E51">
+        <v>-0.0107660611726921</v>
+      </c>
+      <c r="F51">
+        <v>0.009772713853769165</v>
+      </c>
+      <c r="G51">
+        <v>-0.01336372840910709</v>
+      </c>
+      <c r="H51">
+        <v>0.01769605132005023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1551480107985465</v>
+        <v>0.160435779530824</v>
       </c>
       <c r="C53">
-        <v>0.07299848001350082</v>
+        <v>0.04429008007253613</v>
       </c>
       <c r="D53">
-        <v>0.002817646331233864</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02655109044713785</v>
+      </c>
+      <c r="E53">
+        <v>0.03144630015465095</v>
+      </c>
+      <c r="F53">
+        <v>-0.0005608942696713488</v>
+      </c>
+      <c r="G53">
+        <v>0.01168388517388463</v>
+      </c>
+      <c r="H53">
+        <v>-0.2001992854675957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0577492308801586</v>
+        <v>0.05795004847313585</v>
       </c>
       <c r="C54">
-        <v>0.02205461292045784</v>
+        <v>0.01177052568007166</v>
       </c>
       <c r="D54">
-        <v>-0.01599678597935471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01502699337215098</v>
+      </c>
+      <c r="E54">
+        <v>-0.05202779522102686</v>
+      </c>
+      <c r="F54">
+        <v>0.01325056937934177</v>
+      </c>
+      <c r="G54">
+        <v>0.0542667125039942</v>
+      </c>
+      <c r="H54">
+        <v>-0.03721064763739394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1028122080893569</v>
+        <v>0.1037969267447139</v>
       </c>
       <c r="C55">
-        <v>0.05144508169634884</v>
+        <v>0.03028712352831628</v>
       </c>
       <c r="D55">
-        <v>-0.01668310533265871</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03065320335931826</v>
+      </c>
+      <c r="E55">
+        <v>-0.002486818742208501</v>
+      </c>
+      <c r="F55">
+        <v>0.01377343420586071</v>
+      </c>
+      <c r="G55">
+        <v>0.01924063875649144</v>
+      </c>
+      <c r="H55">
+        <v>-0.1597843149843291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1509578737984044</v>
+        <v>0.1571692951939648</v>
       </c>
       <c r="C56">
-        <v>0.08174514239292935</v>
+        <v>0.0497333183286316</v>
       </c>
       <c r="D56">
-        <v>-0.003028609812352074</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04158517528702969</v>
+      </c>
+      <c r="E56">
+        <v>0.01327102383025216</v>
+      </c>
+      <c r="F56">
+        <v>0.0228157176321915</v>
+      </c>
+      <c r="G56">
+        <v>0.01093261725697859</v>
+      </c>
+      <c r="H56">
+        <v>-0.2038953781488599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1327603998603734</v>
+        <v>0.100653357182386</v>
       </c>
       <c r="C58">
-        <v>-0.009692595593527312</v>
+        <v>-0.05181156731616746</v>
       </c>
       <c r="D58">
-        <v>-0.04772525606065254</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03292139662797156</v>
+      </c>
+      <c r="E58">
+        <v>-0.1236261927308129</v>
+      </c>
+      <c r="F58">
+        <v>0.02345922802573036</v>
+      </c>
+      <c r="G58">
+        <v>-0.09610002788779246</v>
+      </c>
+      <c r="H58">
+        <v>0.1477660925790095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1217028701564075</v>
+        <v>0.1466480770967657</v>
       </c>
       <c r="C59">
-        <v>0.07946114502313302</v>
+        <v>0.1175111507174289</v>
       </c>
       <c r="D59">
-        <v>0.3946826793680374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3535355723857238</v>
+      </c>
+      <c r="E59">
+        <v>-0.03328392377800594</v>
+      </c>
+      <c r="F59">
+        <v>0.001994740625360813</v>
+      </c>
+      <c r="G59">
+        <v>-0.00554487576254288</v>
+      </c>
+      <c r="H59">
+        <v>-0.01195575316021777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2095201791021676</v>
+        <v>0.2396044195910998</v>
       </c>
       <c r="C60">
-        <v>0.08855237805081521</v>
+        <v>0.05550392261312911</v>
       </c>
       <c r="D60">
-        <v>-0.01532540801278535</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04474324761109974</v>
+      </c>
+      <c r="E60">
+        <v>0.1163250846414789</v>
+      </c>
+      <c r="F60">
+        <v>0.04686733876140962</v>
+      </c>
+      <c r="G60">
+        <v>-0.02277685964633358</v>
+      </c>
+      <c r="H60">
+        <v>0.1414432721086255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08074190529736124</v>
+        <v>0.08621624270713231</v>
       </c>
       <c r="C61">
-        <v>0.04516252953931353</v>
+        <v>0.02732411846566603</v>
       </c>
       <c r="D61">
-        <v>-0.0347403826299922</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04491035986809743</v>
+      </c>
+      <c r="E61">
+        <v>-0.00548046524622</v>
+      </c>
+      <c r="F61">
+        <v>0.004663737678687261</v>
+      </c>
+      <c r="G61">
+        <v>0.02217390337046835</v>
+      </c>
+      <c r="H61">
+        <v>-0.0625148203552119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1332521019775164</v>
+        <v>0.1363144075362565</v>
       </c>
       <c r="C62">
-        <v>0.05627539165496993</v>
+        <v>0.02590596676410736</v>
       </c>
       <c r="D62">
-        <v>-0.004662001966737634</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04476425179829316</v>
+      </c>
+      <c r="E62">
+        <v>0.04904310670349255</v>
+      </c>
+      <c r="F62">
+        <v>-0.006581178406959588</v>
+      </c>
+      <c r="G62">
+        <v>0.04901443779573632</v>
+      </c>
+      <c r="H62">
+        <v>-0.2037882916685883</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05292123204504539</v>
+        <v>0.05163583170238724</v>
       </c>
       <c r="C63">
-        <v>0.02367225329399324</v>
+        <v>0.01324634868057253</v>
       </c>
       <c r="D63">
-        <v>-0.02382059698487688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02115828197223846</v>
+      </c>
+      <c r="E63">
+        <v>-0.04489400989385309</v>
+      </c>
+      <c r="F63">
+        <v>-0.003237349293133786</v>
+      </c>
+      <c r="G63">
+        <v>0.02992259521317138</v>
+      </c>
+      <c r="H63">
+        <v>-0.03343107479558427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1054206348035953</v>
+        <v>0.108621885789245</v>
       </c>
       <c r="C64">
-        <v>0.02942800183716816</v>
+        <v>0.01185403041027929</v>
       </c>
       <c r="D64">
-        <v>-0.0255193005103159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02902464589821732</v>
+      </c>
+      <c r="E64">
+        <v>-0.03454476947619316</v>
+      </c>
+      <c r="F64">
+        <v>0.04372411671957706</v>
+      </c>
+      <c r="G64">
+        <v>0.06735632576983069</v>
+      </c>
+      <c r="H64">
+        <v>-0.02464531714235794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1268792215501754</v>
+        <v>0.1286422590696284</v>
       </c>
       <c r="C65">
-        <v>0.05586344203262002</v>
+        <v>0.03757055690108974</v>
       </c>
       <c r="D65">
-        <v>-0.01106910560745468</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01223944542313713</v>
+      </c>
+      <c r="E65">
+        <v>0.0119592628017215</v>
+      </c>
+      <c r="F65">
+        <v>0.0427909672474311</v>
+      </c>
+      <c r="G65">
+        <v>0.06811870464046883</v>
+      </c>
+      <c r="H65">
+        <v>0.1401799339893166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1494010092310898</v>
+        <v>0.152623111597144</v>
       </c>
       <c r="C66">
-        <v>0.06848500922454773</v>
+        <v>0.03182116855243643</v>
       </c>
       <c r="D66">
-        <v>-0.09700399522478258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1010631016627333</v>
+      </c>
+      <c r="E66">
+        <v>0.02815018882293818</v>
+      </c>
+      <c r="F66">
+        <v>-0.0003426003639116784</v>
+      </c>
+      <c r="G66">
+        <v>0.0617974424805282</v>
+      </c>
+      <c r="H66">
+        <v>-0.08876759211017668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07654992583847486</v>
+        <v>0.08586377767966737</v>
       </c>
       <c r="C67">
-        <v>0.009678350410877912</v>
+        <v>-0.001886261347845647</v>
       </c>
       <c r="D67">
-        <v>-0.02197188117763607</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03177497067859789</v>
+      </c>
+      <c r="E67">
+        <v>-0.02069326247412931</v>
+      </c>
+      <c r="F67">
+        <v>0.01431346087399364</v>
+      </c>
+      <c r="G67">
+        <v>-0.007533278371464928</v>
+      </c>
+      <c r="H67">
+        <v>-0.0198674442754432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05603692385023799</v>
+        <v>0.06401473007148532</v>
       </c>
       <c r="C68">
-        <v>0.05206594959593077</v>
+        <v>0.08633235994898619</v>
       </c>
       <c r="D68">
-        <v>0.2598032129431715</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2632840020517552</v>
+      </c>
+      <c r="E68">
+        <v>-0.04646983863841794</v>
+      </c>
+      <c r="F68">
+        <v>0.01634963239944792</v>
+      </c>
+      <c r="G68">
+        <v>-0.0009895286196442816</v>
+      </c>
+      <c r="H68">
+        <v>-0.02069785007433793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05437886395303498</v>
+        <v>0.05309206739201799</v>
       </c>
       <c r="C69">
-        <v>0.01727878363596504</v>
+        <v>0.003948390478095975</v>
       </c>
       <c r="D69">
-        <v>-0.02368881648140006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.019936838316074</v>
+      </c>
+      <c r="E69">
+        <v>-0.02353211057337038</v>
+      </c>
+      <c r="F69">
+        <v>-0.01409360116884738</v>
+      </c>
+      <c r="G69">
+        <v>-0.001312575817409942</v>
+      </c>
+      <c r="H69">
+        <v>-0.0467083670379413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.002844743933312101</v>
+        <v>0.02783489899949938</v>
       </c>
       <c r="C70">
-        <v>-0.005729679203901736</v>
+        <v>-0.001383548983946455</v>
       </c>
       <c r="D70">
-        <v>0.01333300706048876</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007869187010836507</v>
+      </c>
+      <c r="E70">
+        <v>0.02154757057709833</v>
+      </c>
+      <c r="F70">
+        <v>-0.009688949727380021</v>
+      </c>
+      <c r="G70">
+        <v>-0.02266296001733413</v>
+      </c>
+      <c r="H70">
+        <v>0.03953984167567946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05535230961560198</v>
+        <v>0.06958506851850989</v>
       </c>
       <c r="C71">
-        <v>0.05031995078651118</v>
+        <v>0.0939359869990786</v>
       </c>
       <c r="D71">
-        <v>0.2933726744408162</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2908893199532978</v>
+      </c>
+      <c r="E71">
+        <v>-0.04358464076863263</v>
+      </c>
+      <c r="F71">
+        <v>0.04516221516715384</v>
+      </c>
+      <c r="G71">
+        <v>0.007360809890169161</v>
+      </c>
+      <c r="H71">
+        <v>-0.01327093937045553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1425781542710886</v>
+        <v>0.1441280401964158</v>
       </c>
       <c r="C72">
-        <v>0.05891224448270693</v>
+        <v>0.0306347111997716</v>
       </c>
       <c r="D72">
-        <v>0.003464802705120938</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004043679889394724</v>
+      </c>
+      <c r="E72">
+        <v>0.05162998795742463</v>
+      </c>
+      <c r="F72">
+        <v>-0.1558427683745545</v>
+      </c>
+      <c r="G72">
+        <v>0.1198880795942602</v>
+      </c>
+      <c r="H72">
+        <v>-0.003648093362321723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2875105024326423</v>
+        <v>0.2900876438890508</v>
       </c>
       <c r="C73">
-        <v>0.09157292680283834</v>
+        <v>0.02232970772997023</v>
       </c>
       <c r="D73">
-        <v>-0.04121736226654066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09370636824019987</v>
+      </c>
+      <c r="E73">
+        <v>0.2562097797237832</v>
+      </c>
+      <c r="F73">
+        <v>0.07468920654548207</v>
+      </c>
+      <c r="G73">
+        <v>-0.2509470480630583</v>
+      </c>
+      <c r="H73">
+        <v>0.406590847950309</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.0843639350192003</v>
+        <v>0.09249361902676312</v>
       </c>
       <c r="C74">
-        <v>0.07460480536172649</v>
+        <v>0.05407354542749615</v>
       </c>
       <c r="D74">
-        <v>-0.005745329393059571</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03898376656841958</v>
+      </c>
+      <c r="E74">
+        <v>0.003873202493511285</v>
+      </c>
+      <c r="F74">
+        <v>-0.0007230995667873898</v>
+      </c>
+      <c r="G74">
+        <v>-0.02611942114900702</v>
+      </c>
+      <c r="H74">
+        <v>-0.1314224902354587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1007557895431979</v>
+        <v>0.1033993861448981</v>
       </c>
       <c r="C75">
-        <v>0.04734722916176618</v>
+        <v>0.02126954490330252</v>
       </c>
       <c r="D75">
-        <v>-0.01483288227224069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02555918398270202</v>
+      </c>
+      <c r="E75">
+        <v>0.0006457216575952909</v>
+      </c>
+      <c r="F75">
+        <v>-0.001034784343639746</v>
+      </c>
+      <c r="G75">
+        <v>-0.01344084616511779</v>
+      </c>
+      <c r="H75">
+        <v>-0.09911121675845297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1337502038688444</v>
+        <v>0.1426298088502724</v>
       </c>
       <c r="C76">
-        <v>0.07817747133650144</v>
+        <v>0.05034734664920328</v>
       </c>
       <c r="D76">
-        <v>-0.02387289268171001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05286254960943343</v>
+      </c>
+      <c r="E76">
+        <v>-0.01630717996277345</v>
+      </c>
+      <c r="F76">
+        <v>0.03351897096146057</v>
+      </c>
+      <c r="G76">
+        <v>0.02094807096577748</v>
+      </c>
+      <c r="H76">
+        <v>-0.2202986135918885</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1189518638568446</v>
+        <v>0.1022775314441022</v>
       </c>
       <c r="C77">
-        <v>0.008137708746255969</v>
+        <v>-0.0251665798670152</v>
       </c>
       <c r="D77">
-        <v>-0.08570567698671905</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03914281015214478</v>
+      </c>
+      <c r="E77">
+        <v>-0.04232571146655719</v>
+      </c>
+      <c r="F77">
+        <v>0.06990428998871576</v>
+      </c>
+      <c r="G77">
+        <v>0.8050494527133406</v>
+      </c>
+      <c r="H77">
+        <v>0.3381045706201966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1075056673394701</v>
+        <v>0.1516051783673018</v>
       </c>
       <c r="C78">
-        <v>0.0339031377471592</v>
+        <v>0.02741073746278544</v>
       </c>
       <c r="D78">
-        <v>-0.096781911491352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08230479193028716</v>
+      </c>
+      <c r="E78">
+        <v>-0.05123401631336125</v>
+      </c>
+      <c r="F78">
+        <v>0.05807801368715221</v>
+      </c>
+      <c r="G78">
+        <v>0.05604889744263842</v>
+      </c>
+      <c r="H78">
+        <v>0.06053533390682608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1466855776287871</v>
+        <v>0.1473384597858432</v>
       </c>
       <c r="C79">
-        <v>0.0656869060569651</v>
+        <v>0.03111303427300827</v>
       </c>
       <c r="D79">
-        <v>-0.02246426992639698</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03991155744438135</v>
+      </c>
+      <c r="E79">
+        <v>0.01588584644147512</v>
+      </c>
+      <c r="F79">
+        <v>0.01934062017839618</v>
+      </c>
+      <c r="G79">
+        <v>0.02498503868028917</v>
+      </c>
+      <c r="H79">
+        <v>-0.1579395917635119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04153281853893878</v>
+        <v>0.04238013324602581</v>
       </c>
       <c r="C80">
-        <v>0.01975710293351718</v>
+        <v>0.01177276762966105</v>
       </c>
       <c r="D80">
-        <v>-0.0314449788306916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01512551591387104</v>
+      </c>
+      <c r="E80">
+        <v>0.03918062915159418</v>
+      </c>
+      <c r="F80">
+        <v>0.002362015554414932</v>
+      </c>
+      <c r="G80">
+        <v>-0.02139966185112722</v>
+      </c>
+      <c r="H80">
+        <v>-0.03799172631033861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1242208504944042</v>
+        <v>0.1262960814897105</v>
       </c>
       <c r="C81">
-        <v>0.05866606236867745</v>
+        <v>0.03223287532367364</v>
       </c>
       <c r="D81">
-        <v>-0.02628476898231979</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02899833105045456</v>
+      </c>
+      <c r="E81">
+        <v>-0.008444082200987532</v>
+      </c>
+      <c r="F81">
+        <v>0.01308296414582759</v>
+      </c>
+      <c r="G81">
+        <v>-0.0175585279933428</v>
+      </c>
+      <c r="H81">
+        <v>-0.1458985836081191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1330901033649512</v>
+        <v>0.1304574916045281</v>
       </c>
       <c r="C82">
-        <v>0.06967584780707674</v>
+        <v>0.0404971771418183</v>
       </c>
       <c r="D82">
-        <v>-0.004472399517819601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03823279248091131</v>
+      </c>
+      <c r="E82">
+        <v>0.02082884678010406</v>
+      </c>
+      <c r="F82">
+        <v>0.04097190851669816</v>
+      </c>
+      <c r="G82">
+        <v>-0.01053854144983682</v>
+      </c>
+      <c r="H82">
+        <v>-0.221365265376045</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06551097471271045</v>
+        <v>0.08042235159721046</v>
       </c>
       <c r="C83">
-        <v>-0.02391913048338757</v>
+        <v>-0.03469055501112436</v>
       </c>
       <c r="D83">
-        <v>-0.01572462141861668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01809876281831442</v>
+      </c>
+      <c r="E83">
+        <v>-0.02371233857560787</v>
+      </c>
+      <c r="F83">
+        <v>0.02858243728999764</v>
+      </c>
+      <c r="G83">
+        <v>-0.05172893343626812</v>
+      </c>
+      <c r="H83">
+        <v>0.03110145425463429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02845851939948094</v>
+        <v>0.03485010017769884</v>
       </c>
       <c r="C84">
-        <v>0.02910121570473137</v>
+        <v>0.01880680051996751</v>
       </c>
       <c r="D84">
-        <v>-0.03426943366557524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03913883761636152</v>
+      </c>
+      <c r="E84">
+        <v>-0.01878454619639215</v>
+      </c>
+      <c r="F84">
+        <v>-0.03901263231909852</v>
+      </c>
+      <c r="G84">
+        <v>-0.04016904709794276</v>
+      </c>
+      <c r="H84">
+        <v>-0.02873503722667699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1188113524174054</v>
+        <v>0.1223108896702561</v>
       </c>
       <c r="C85">
-        <v>0.03901971886852787</v>
+        <v>0.01449357169626959</v>
       </c>
       <c r="D85">
-        <v>-0.05084696949218048</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03921621005421207</v>
+      </c>
+      <c r="E85">
+        <v>-0.01731029652250001</v>
+      </c>
+      <c r="F85">
+        <v>0.03380649481172172</v>
+      </c>
+      <c r="G85">
+        <v>-0.01550427260893404</v>
+      </c>
+      <c r="H85">
+        <v>-0.1454039444747401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05262970865116847</v>
+        <v>0.05632805808385963</v>
       </c>
       <c r="C86">
-        <v>0.02241376950692654</v>
+        <v>0.008409438089577359</v>
       </c>
       <c r="D86">
-        <v>-0.06131519222467494</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03617606557711213</v>
+      </c>
+      <c r="E86">
+        <v>-0.04017947664349873</v>
+      </c>
+      <c r="F86">
+        <v>0.02360438881964143</v>
+      </c>
+      <c r="G86">
+        <v>-0.03803786148335343</v>
+      </c>
+      <c r="H86">
+        <v>0.04070252338989557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1228945958650774</v>
+        <v>0.1254369757942907</v>
       </c>
       <c r="C87">
-        <v>0.06920093807057447</v>
+        <v>0.03252264621391996</v>
       </c>
       <c r="D87">
-        <v>-0.06954056922622252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06902184571265731</v>
+      </c>
+      <c r="E87">
+        <v>-0.01774907927181431</v>
+      </c>
+      <c r="F87">
+        <v>0.01954209282520346</v>
+      </c>
+      <c r="G87">
+        <v>0.1425510541663665</v>
+      </c>
+      <c r="H87">
+        <v>0.06787615802897745</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05408411263380695</v>
+        <v>0.06260704214951557</v>
       </c>
       <c r="C88">
-        <v>0.02818814341178982</v>
+        <v>0.01730610832455615</v>
       </c>
       <c r="D88">
-        <v>-0.02522247980740411</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03858046314966045</v>
+      </c>
+      <c r="E88">
+        <v>-0.007449112670987401</v>
+      </c>
+      <c r="F88">
+        <v>0.01977707752209459</v>
+      </c>
+      <c r="G88">
+        <v>0.01847920759414435</v>
+      </c>
+      <c r="H88">
+        <v>-0.03876891123344717</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08566564652902382</v>
+        <v>0.1072078083189748</v>
       </c>
       <c r="C89">
-        <v>0.07357555863495398</v>
+        <v>0.1217666373405115</v>
       </c>
       <c r="D89">
-        <v>0.321829798162429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3393612854606642</v>
+      </c>
+      <c r="E89">
+        <v>-0.06415909009604172</v>
+      </c>
+      <c r="F89">
+        <v>0.07431578226210593</v>
+      </c>
+      <c r="G89">
+        <v>-0.0154275898984233</v>
+      </c>
+      <c r="H89">
+        <v>-0.01361673309562952</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06706279383492192</v>
+        <v>0.08382211904339107</v>
       </c>
       <c r="C90">
-        <v>0.06120658251304761</v>
+        <v>0.09932756198008777</v>
       </c>
       <c r="D90">
-        <v>0.2816893911619433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2800252233782304</v>
+      </c>
+      <c r="E90">
+        <v>-0.05010738186734578</v>
+      </c>
+      <c r="F90">
+        <v>0.03229841640050758</v>
+      </c>
+      <c r="G90">
+        <v>0.02447584626358527</v>
+      </c>
+      <c r="H90">
+        <v>0.006511756005692239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09008663321301977</v>
+        <v>0.09100751141524152</v>
       </c>
       <c r="C91">
-        <v>0.05079924075056413</v>
+        <v>0.02640383591090062</v>
       </c>
       <c r="D91">
-        <v>-0.01344824600207541</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03317236694049871</v>
+      </c>
+      <c r="E91">
+        <v>-0.008140925671643552</v>
+      </c>
+      <c r="F91">
+        <v>-0.0007497392528334614</v>
+      </c>
+      <c r="G91">
+        <v>-0.02981476417252049</v>
+      </c>
+      <c r="H91">
+        <v>-0.09038479972446477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06941948649146001</v>
+        <v>0.0843560283990608</v>
       </c>
       <c r="C92">
-        <v>0.06786838895504906</v>
+        <v>0.1134127942876511</v>
       </c>
       <c r="D92">
-        <v>0.3336047965327645</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3285844879749981</v>
+      </c>
+      <c r="E92">
+        <v>-0.05094662653673246</v>
+      </c>
+      <c r="F92">
+        <v>0.03704810333296794</v>
+      </c>
+      <c r="G92">
+        <v>0.001167295567949738</v>
+      </c>
+      <c r="H92">
+        <v>-0.01815731501661078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06209416113979257</v>
+        <v>0.0814984771094182</v>
       </c>
       <c r="C93">
-        <v>0.06623444779111559</v>
+        <v>0.1108986011166602</v>
       </c>
       <c r="D93">
-        <v>0.3020926521402758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.295777354188223</v>
+      </c>
+      <c r="E93">
+        <v>-0.02598436217080245</v>
+      </c>
+      <c r="F93">
+        <v>0.02834555587193425</v>
+      </c>
+      <c r="G93">
+        <v>0.01791358380029105</v>
+      </c>
+      <c r="H93">
+        <v>-0.005089820329647892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1347402552347417</v>
+        <v>0.1292456190480825</v>
       </c>
       <c r="C94">
-        <v>0.04261844055112682</v>
+        <v>0.008373104975178456</v>
       </c>
       <c r="D94">
-        <v>-0.04498276945782402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.050027507576832</v>
+      </c>
+      <c r="E94">
+        <v>0.01905836376026817</v>
+      </c>
+      <c r="F94">
+        <v>0.01383738367973057</v>
+      </c>
+      <c r="G94">
+        <v>-0.04975475524284827</v>
+      </c>
+      <c r="H94">
+        <v>-0.1137907479081094</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1216508331250683</v>
+        <v>0.129429521523225</v>
       </c>
       <c r="C95">
-        <v>0.01777349063871956</v>
+        <v>-0.008755470478730163</v>
       </c>
       <c r="D95">
-        <v>-0.05371205041810307</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0576301520205583</v>
+      </c>
+      <c r="E95">
+        <v>-0.005933408196837149</v>
+      </c>
+      <c r="F95">
+        <v>0.04892385424843137</v>
+      </c>
+      <c r="G95">
+        <v>0.02000220608040945</v>
+      </c>
+      <c r="H95">
+        <v>0.09327855745916834</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2199232834729224</v>
+        <v>0.1950791776413197</v>
       </c>
       <c r="C97">
-        <v>0.03532345871336502</v>
+        <v>-0.0147547556297684</v>
       </c>
       <c r="D97">
-        <v>0.09084271392031051</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06786407567093256</v>
+      </c>
+      <c r="E97">
+        <v>0.06288778200679876</v>
+      </c>
+      <c r="F97">
+        <v>-0.9356449301167992</v>
+      </c>
+      <c r="G97">
+        <v>0.05527302773833524</v>
+      </c>
+      <c r="H97">
+        <v>0.01813687206310647</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2440254319692396</v>
+        <v>0.2740119431129753</v>
       </c>
       <c r="C98">
-        <v>0.05297822379019104</v>
+        <v>0.0120483213946358</v>
       </c>
       <c r="D98">
-        <v>-0.01441010244230536</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04398421546017344</v>
+      </c>
+      <c r="E98">
+        <v>0.1948036340958942</v>
+      </c>
+      <c r="F98">
+        <v>0.0363012920796259</v>
+      </c>
+      <c r="G98">
+        <v>-0.3178918153387207</v>
+      </c>
+      <c r="H98">
+        <v>0.2097527762637204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3969948830709361</v>
+        <v>0.2550098907632425</v>
       </c>
       <c r="C99">
-        <v>-0.8979201335667303</v>
+        <v>-0.9207397597629028</v>
       </c>
       <c r="D99">
-        <v>0.06779528061073291</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2236759224399978</v>
+      </c>
+      <c r="E99">
+        <v>-0.07182400762966076</v>
+      </c>
+      <c r="F99">
+        <v>0.07766510844086569</v>
+      </c>
+      <c r="G99">
+        <v>0.0002727844068689955</v>
+      </c>
+      <c r="H99">
+        <v>-0.07875071006341509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04531075399341985</v>
+        <v>0.04749492584329115</v>
       </c>
       <c r="C101">
-        <v>0.03067144905735902</v>
+        <v>0.02245576623666865</v>
       </c>
       <c r="D101">
-        <v>-0.002023534237927027</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01240169018840887</v>
+      </c>
+      <c r="E101">
+        <v>-0.0572795240440599</v>
+      </c>
+      <c r="F101">
+        <v>0.01382052917326108</v>
+      </c>
+      <c r="G101">
+        <v>0.01193049894529364</v>
+      </c>
+      <c r="H101">
+        <v>-0.06197985159413073</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
